--- a/nice_2016.xlsx
+++ b/nice_2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>region</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>okrug</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>fin_share</t>
+  </si>
+  <si>
+    <t>cev_share</t>
   </si>
   <si>
     <t>Республика Адыгея</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +912,19 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -966,15 +984,24 @@
         <v>0.248575365999983</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AK2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL2">
+        <v>12.95585761508</v>
+      </c>
+      <c r="AM2">
+        <v>0.09290795430049577</v>
+      </c>
+      <c r="AN2">
+        <v>0.02953222677301141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -1034,15 +1061,24 @@
         <v>0.7092954679999934</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL3">
+        <v>12.72579054676</v>
+      </c>
+      <c r="AM3">
+        <v>0.0413907284768212</v>
+      </c>
+      <c r="AN3">
+        <v>0.02090231788079471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -1102,7 +1138,7 @@
         <v>0.4115670009999945</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X4">
         <v>2.06</v>
@@ -1123,12 +1159,21 @@
         <v>14.81</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL4">
+        <v>12.82389018715</v>
+      </c>
+      <c r="AM4">
+        <v>0.02447505384063173</v>
+      </c>
+      <c r="AN4">
+        <v>0.03672379755922469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -1188,7 +1233,7 @@
         <v>0.2912760810000066</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="X5">
         <v>-0.05</v>
@@ -1209,12 +1254,21 @@
         <v>12.14</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL5">
+        <v>12.99069588261</v>
+      </c>
+      <c r="AM5">
+        <v>0.02760506003430532</v>
+      </c>
+      <c r="AN5">
+        <v>0.02583619210977701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -1274,15 +1328,24 @@
         <v>0.436525410999991</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL6">
+        <v>13.03284876537</v>
+      </c>
+      <c r="AM6">
+        <v>0.04891467440232069</v>
+      </c>
+      <c r="AN6">
+        <v>0.03906171851555466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -1342,15 +1405,24 @@
         <v>0.3509930190000006</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AK7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL7">
+        <v>13.06171371137</v>
+      </c>
+      <c r="AM7">
+        <v>0.06046210321744764</v>
+      </c>
+      <c r="AN7">
+        <v>0.06290937882386813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -1410,7 +1482,7 @@
         <v>0.2319904610000094</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="X8">
         <v>3.96</v>
@@ -1431,12 +1503,21 @@
         <v>11.74</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL8">
+        <v>13.09270942369</v>
+      </c>
+      <c r="AM8">
+        <v>0.03483158104158058</v>
+      </c>
+      <c r="AN8">
+        <v>0.04421284605849135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -1496,15 +1577,24 @@
         <v>0.1679223780000001</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AK9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL9">
+        <v>13.21206572252</v>
+      </c>
+      <c r="AM9">
+        <v>0.06773605541378053</v>
+      </c>
+      <c r="AN9">
+        <v>0.03601895734597155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -1564,15 +1654,24 @@
         <v>0.04149002399999802</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AK10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL10">
+        <v>13.0164128684</v>
+      </c>
+      <c r="AM10">
+        <v>0.03609127109537957</v>
+      </c>
+      <c r="AN10">
+        <v>0.03956766323241265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>2016</v>
@@ -1632,15 +1731,24 @@
         <v>0.4095731960000109</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL11">
+        <v>12.99323409714</v>
+      </c>
+      <c r="AM11">
+        <v>0.03424336641253886</v>
+      </c>
+      <c r="AN11">
+        <v>0.02244558967588057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>2016</v>
@@ -1700,15 +1808,24 @@
         <v>0.2197725479999946</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL12">
+        <v>12.91344415006</v>
+      </c>
+      <c r="AM12">
+        <v>0.0558574563695266</v>
+      </c>
+      <c r="AN12">
+        <v>0.04598181628174314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2016</v>
@@ -1768,7 +1885,7 @@
         <v>0.09694870600000627</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X13">
         <v>8.01</v>
@@ -1789,12 +1906,21 @@
         <v>14.28</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL13">
+        <v>13.0823272268</v>
+      </c>
+      <c r="AM13">
+        <v>0.05704403489752722</v>
+      </c>
+      <c r="AN13">
+        <v>0.03270352588921583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2016</v>
@@ -1854,7 +1980,7 @@
         <v>0.4296007459999913</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="X14">
         <v>4.24</v>
@@ -1875,12 +2001,21 @@
         <v>8.359999999999999</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL14">
+        <v>12.8985864725</v>
+      </c>
+      <c r="AM14">
+        <v>0.03805784481418131</v>
+      </c>
+      <c r="AN14">
+        <v>0.03743585756491992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2016</v>
@@ -1940,7 +2075,7 @@
         <v>0.08504807399999947</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="X15">
         <v>6.48</v>
@@ -1961,12 +2096,21 @@
         <v>11.74</v>
       </c>
       <c r="AK15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL15">
+        <v>12.96527578754</v>
+      </c>
+      <c r="AM15">
+        <v>0.04381728251382018</v>
+      </c>
+      <c r="AN15">
+        <v>0.0353796915915042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2016</v>
@@ -2026,15 +2170,24 @@
         <v>0.8477868589999957</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL16">
+        <v>12.42180375899</v>
+      </c>
+      <c r="AM16">
+        <v>0.0423481308411215</v>
+      </c>
+      <c r="AN16">
+        <v>0.03183411214953271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2016</v>
@@ -2094,7 +2247,7 @@
         <v>0.8767905619999965</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="X17">
         <v>-1.18</v>
@@ -2115,12 +2268,21 @@
         <v>13.09</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL17">
+        <v>12.46720695188</v>
+      </c>
+      <c r="AM17">
+        <v>0.03914626744891764</v>
+      </c>
+      <c r="AN17">
+        <v>0.02329894126373997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2016</v>
@@ -2180,15 +2342,24 @@
         <v>0.07839392900000064</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL18">
+        <v>12.94447983641</v>
+      </c>
+      <c r="AM18">
+        <v>0.04741409232905242</v>
+      </c>
+      <c r="AN18">
+        <v>0.04352655328011108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -2248,15 +2419,24 @@
         <v>0.3362018589999991</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AK19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL19">
+        <v>12.82216230559</v>
+      </c>
+      <c r="AM19">
+        <v>0.03252568657065667</v>
+      </c>
+      <c r="AN19">
+        <v>0.02965389606245612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2016</v>
@@ -2316,15 +2496,24 @@
         <v>0.1714761580000044</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL20">
+        <v>13.01016639256</v>
+      </c>
+      <c r="AM20">
+        <v>0.06117664851784635</v>
+      </c>
+      <c r="AN20">
+        <v>0.03864186327888688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2016</v>
@@ -2384,7 +2573,7 @@
         <v>0.209137436000006</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="X21">
         <v>9.470000000000001</v>
@@ -2405,12 +2594,21 @@
         <v>15.78</v>
       </c>
       <c r="AK21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL21">
+        <v>13.20249960198</v>
+      </c>
+      <c r="AM21">
+        <v>0.0935276177566927</v>
+      </c>
+      <c r="AN21">
+        <v>0.02168756353778381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2016</v>
@@ -2470,7 +2668,7 @@
         <v>0.04481072499999073</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X22">
         <v>5.79</v>
@@ -2491,12 +2689,21 @@
         <v>12.62</v>
       </c>
       <c r="AK22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL22">
+        <v>13.06792712147</v>
+      </c>
+      <c r="AM22">
+        <v>0.0410671277712592</v>
+      </c>
+      <c r="AN22">
+        <v>0.05100969554745878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2016</v>
@@ -2556,15 +2763,24 @@
         <v>0.2567174170000186</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL23">
+        <v>13.32465526003</v>
+      </c>
+      <c r="AM23">
+        <v>0.04950495049504951</v>
+      </c>
+      <c r="AN23">
+        <v>0.05701604643222942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2016</v>
@@ -2624,7 +2840,7 @@
         <v>0.3751634709999934</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="X24">
         <v>4.38</v>
@@ -2645,12 +2861,21 @@
         <v>11.05</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL24">
+        <v>12.99257341821</v>
+      </c>
+      <c r="AM24">
+        <v>0.04315210932857991</v>
+      </c>
+      <c r="AN24">
+        <v>0.0481283422459893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2016</v>
@@ -2710,15 +2935,24 @@
         <v>0.3286660670000146</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL25">
+        <v>12.98595455841</v>
+      </c>
+      <c r="AM25">
+        <v>0.02482281644811176</v>
+      </c>
+      <c r="AN25">
+        <v>0.04242133735063513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2016</v>
@@ -2778,15 +3012,24 @@
         <v>0.5332000270000066</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>12.88141537577</v>
+      </c>
+      <c r="AM26">
+        <v>0.04804597701149425</v>
+      </c>
+      <c r="AN26">
+        <v>0.03724137931034482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2016</v>
@@ -2846,15 +3089,24 @@
         <v>0.5723870510000069</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL27">
+        <v>12.91059266963</v>
+      </c>
+      <c r="AM27">
+        <v>0.0466264111315306</v>
+      </c>
+      <c r="AN27">
+        <v>0.04095563139931741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -2914,15 +3166,24 @@
         <v>0.2591444739999957</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AK28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL28">
+        <v>13.07452055832</v>
+      </c>
+      <c r="AM28">
+        <v>0.06732740943267258</v>
+      </c>
+      <c r="AN28">
+        <v>0.05992253360674414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2016</v>
@@ -2982,7 +3243,7 @@
         <v>0.03821692900001494</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="X29">
         <v>12.6</v>
@@ -3003,12 +3264,21 @@
         <v>14.67</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL29">
+        <v>12.97352361427</v>
+      </c>
+      <c r="AM29">
+        <v>0.06369827574151507</v>
+      </c>
+      <c r="AN29">
+        <v>0.03483477604217653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2016</v>
@@ -3068,7 +3338,7 @@
         <v>0.463674989999987</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="X30">
         <v>-3.23</v>
@@ -3089,12 +3359,21 @@
         <v>12.9</v>
       </c>
       <c r="AK30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL30">
+        <v>12.77776383466</v>
+      </c>
+      <c r="AM30">
+        <v>0.02964295695919509</v>
+      </c>
+      <c r="AN30">
+        <v>0.05764393515930686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2016</v>
@@ -3154,15 +3433,24 @@
         <v>0.03765418600001169</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL31">
+        <v>13.13187397972</v>
+      </c>
+      <c r="AM31">
+        <v>0.03760475007369353</v>
+      </c>
+      <c r="AN31">
+        <v>0.02695077272918685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2016</v>
@@ -3222,15 +3510,24 @@
         <v>0.9046066979999949</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AK32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL32">
+        <v>12.79885909934</v>
+      </c>
+      <c r="AM32">
+        <v>0.04004547098641036</v>
+      </c>
+      <c r="AN32">
+        <v>0.04888131039115382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2016</v>
@@ -3290,15 +3587,24 @@
         <v>0.053486012999997</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AK33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL33">
+        <v>13.26327004041</v>
+      </c>
+      <c r="AM33">
+        <v>0.05397867104183757</v>
+      </c>
+      <c r="AN33">
+        <v>0.04249384741591469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2016</v>
@@ -3358,15 +3664,24 @@
         <v>0.1962005740000023</v>
       </c>
       <c r="U34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AK34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL34">
+        <v>13.06042822804</v>
+      </c>
+      <c r="AM34">
+        <v>0.05029940119760479</v>
+      </c>
+      <c r="AN34">
+        <v>0.07151411462788709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2016</v>
@@ -3426,15 +3741,24 @@
         <v>0.06872214300000223</v>
       </c>
       <c r="U35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL35">
+        <v>13.11448906003</v>
+      </c>
+      <c r="AM35">
+        <v>0.05432937181663838</v>
+      </c>
+      <c r="AN35">
+        <v>0.03759398496240602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2016</v>
@@ -3494,15 +3818,24 @@
         <v>0.1130092140000158</v>
       </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL36">
+        <v>13.00378912332</v>
+      </c>
+      <c r="AM36">
+        <v>0.06898861352980577</v>
+      </c>
+      <c r="AN36">
+        <v>0.05927662424648358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>2016</v>
@@ -3562,15 +3895,24 @@
         <v>0.03438977099999363</v>
       </c>
       <c r="U37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AK37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL37">
+        <v>13.02465261313</v>
+      </c>
+      <c r="AM37">
+        <v>0.05004158580537846</v>
+      </c>
+      <c r="AN37">
+        <v>0.04532852786248962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>2016</v>
@@ -3630,15 +3972,24 @@
         <v>0.4092392929999988</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AK38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL38">
+        <v>13.19798037551</v>
+      </c>
+      <c r="AM38">
+        <v>0.1062227973179626</v>
+      </c>
+      <c r="AN38">
+        <v>0.05364074814727679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>2016</v>
@@ -3698,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X39">
         <v>4.56</v>
@@ -3737,12 +4088,21 @@
         <v>12.6</v>
       </c>
       <c r="AK39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL39">
+        <v>13.8225074182</v>
+      </c>
+      <c r="AM39">
+        <v>0.05481949188604814</v>
+      </c>
+      <c r="AN39">
+        <v>0.05261130087752591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>2016</v>
@@ -3802,15 +4162,24 @@
         <v>0.08557887700000322</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL40">
+        <v>13.38962943009</v>
+      </c>
+      <c r="AM40">
+        <v>0.04815565647757002</v>
+      </c>
+      <c r="AN40">
+        <v>0.05389764091645242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>2016</v>
@@ -3870,7 +4239,7 @@
         <v>0.09302775500000848</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X41">
         <v>-3.71</v>
@@ -3891,12 +4260,21 @@
         <v>3.22</v>
       </c>
       <c r="AK41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL41">
+        <v>13.11586034627</v>
+      </c>
+      <c r="AM41">
+        <v>0.03479184649093685</v>
+      </c>
+      <c r="AN41">
+        <v>0.0716419892437421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>2016</v>
@@ -3956,15 +4334,24 @@
         <v>0.6612704809999883</v>
       </c>
       <c r="U42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL42">
+        <v>12.82576883027</v>
+      </c>
+      <c r="AM42">
+        <v>0.04587155963302753</v>
+      </c>
+      <c r="AN42">
+        <v>0.05897771952817826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2016</v>
@@ -4024,15 +4411,24 @@
         <v>0.1271223100000043</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL43">
+        <v>13.05922641264</v>
+      </c>
+      <c r="AM43">
+        <v>0.04403797405437648</v>
+      </c>
+      <c r="AN43">
+        <v>0.05395397385555944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>2016</v>
@@ -4092,15 +4488,24 @@
         <v>0.3184838069999927</v>
       </c>
       <c r="U44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL44">
+        <v>12.85530586633</v>
+      </c>
+      <c r="AM44">
+        <v>0.03629234106457533</v>
+      </c>
+      <c r="AN44">
+        <v>0.04505256132154179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>2016</v>
@@ -4160,15 +4565,24 @@
         <v>0.2906718539999815</v>
       </c>
       <c r="U45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AK45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL45">
+        <v>12.89673126826</v>
+      </c>
+      <c r="AM45">
+        <v>0.04749894913829338</v>
+      </c>
+      <c r="AN45">
+        <v>0.04895909382535783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>2016</v>
@@ -4228,15 +4642,24 @@
         <v>0.6990485839999963</v>
       </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AK46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL46">
+        <v>12.8084898362</v>
+      </c>
+      <c r="AM46">
+        <v>0.05839465794494412</v>
+      </c>
+      <c r="AN46">
+        <v>0.05924638866176069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>2016</v>
@@ -4296,15 +4719,24 @@
         <v>0.09540869499998905</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AK47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL47">
+        <v>13.02144720141</v>
+      </c>
+      <c r="AM47">
+        <v>0.03716489166360631</v>
+      </c>
+      <c r="AN47">
+        <v>0.05699596033786265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2016</v>
@@ -4364,15 +4796,24 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AK48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL48">
+        <v>13.24728380446</v>
+      </c>
+      <c r="AM48">
+        <v>0.06421131751315365</v>
+      </c>
+      <c r="AN48">
+        <v>0.03897777300547621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>2016</v>
@@ -4432,15 +4873,24 @@
         <v>0.2259180260000022</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AK49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL49">
+        <v>13.02244199582</v>
+      </c>
+      <c r="AM49">
+        <v>0.04838055036934815</v>
+      </c>
+      <c r="AN49">
+        <v>0.06623914278756392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -4500,7 +4950,7 @@
         <v>0.4258148340000076</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X50">
         <v>2.46</v>
@@ -4521,12 +4971,21 @@
         <v>12.03</v>
       </c>
       <c r="AK50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL50">
+        <v>12.83683463974</v>
+      </c>
+      <c r="AM50">
+        <v>0.03906062784567456</v>
+      </c>
+      <c r="AN50">
+        <v>0.05569534307852063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2016</v>
@@ -4586,15 +5045,24 @@
         <v>0.3112121470000062</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AK51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL51">
+        <v>13.02921559061</v>
+      </c>
+      <c r="AM51">
+        <v>0.03165364782764078</v>
+      </c>
+      <c r="AN51">
+        <v>0.0405370909276561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2016</v>
@@ -4654,15 +5122,24 @@
         <v>0.3585418069999946</v>
       </c>
       <c r="U52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AK52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL52">
+        <v>12.90092273663</v>
+      </c>
+      <c r="AM52">
+        <v>0.04895767530006318</v>
+      </c>
+      <c r="AN52">
+        <v>0.02990103179616762</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>2016</v>
@@ -4722,15 +5199,24 @@
         <v>0.3001192410000044</v>
       </c>
       <c r="U53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL53">
+        <v>12.93748082809</v>
+      </c>
+      <c r="AM53">
+        <v>0.05357854778041636</v>
+      </c>
+      <c r="AN53">
+        <v>0.03270874139813836</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>2016</v>
@@ -4790,15 +5276,24 @@
         <v>0.3033421489999881</v>
       </c>
       <c r="U54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AK54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL54">
+        <v>13.17915686615</v>
+      </c>
+      <c r="AM54">
+        <v>0.08011339773204534</v>
+      </c>
+      <c r="AN54">
+        <v>0.05638387232255356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>2016</v>
@@ -4858,15 +5353,24 @@
         <v>0.1572467969999991</v>
       </c>
       <c r="U55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AK55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL55">
+        <v>13.32359362309</v>
+      </c>
+      <c r="AM55">
+        <v>0.04711804453312777</v>
+      </c>
+      <c r="AN55">
+        <v>0.05727631399936513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>2016</v>
@@ -4926,7 +5430,7 @@
         <v>0.00969856999999763</v>
       </c>
       <c r="U56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="X56">
         <v>5.22</v>
@@ -4947,12 +5451,21 @@
         <v>11.29</v>
       </c>
       <c r="AK56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37">
+        <v>137</v>
+      </c>
+      <c r="AL56">
+        <v>13.57078049682</v>
+      </c>
+      <c r="AM56">
+        <v>0.05321770357777311</v>
+      </c>
+      <c r="AN56">
+        <v>0.144524459895704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>2016</v>
@@ -5012,15 +5525,24 @@
         <v>0.1126986159999888</v>
       </c>
       <c r="U57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL57">
+        <v>13.1827582911</v>
+      </c>
+      <c r="AM57">
+        <v>0.06025733237433068</v>
+      </c>
+      <c r="AN57">
+        <v>0.04747063054423399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>2016</v>
@@ -5080,7 +5602,7 @@
         <v>0.2018015280000043</v>
       </c>
       <c r="U58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="X58">
         <v>-10.02</v>
@@ -5101,12 +5623,21 @@
         <v>12.44</v>
       </c>
       <c r="AK58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL58">
+        <v>12.99169656626</v>
+      </c>
+      <c r="AM58">
+        <v>0.04121212121212122</v>
+      </c>
+      <c r="AN58">
+        <v>0.04193939393939395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>2016</v>
@@ -5166,15 +5697,24 @@
         <v>0.157224706000008</v>
       </c>
       <c r="U59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL59">
+        <v>12.93925455832</v>
+      </c>
+      <c r="AM59">
+        <v>0.04180274330502937</v>
+      </c>
+      <c r="AN59">
+        <v>0.04817112998040494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>2016</v>
@@ -5234,15 +5774,24 @@
         <v>0.2394229370000005</v>
       </c>
       <c r="U60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL60">
+        <v>12.95853970259</v>
+      </c>
+      <c r="AM60">
+        <v>0.04571815803574242</v>
+      </c>
+      <c r="AN60">
+        <v>0.06691461531187946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>2016</v>
@@ -5302,15 +5851,24 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37">
+        <v>134</v>
+      </c>
+      <c r="AL61">
+        <v>13.44590633716</v>
+      </c>
+      <c r="AM61">
+        <v>0.04857092758197441</v>
+      </c>
+      <c r="AN61">
+        <v>0.03173768192179555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2016</v>
@@ -5370,15 +5928,24 @@
         <v>0.1877682360000108</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL62">
+        <v>13.08843846512</v>
+      </c>
+      <c r="AM62">
+        <v>0.05776120494260438</v>
+      </c>
+      <c r="AN62">
+        <v>0.04591650215690577</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>2016</v>
@@ -5438,15 +6005,24 @@
         <v>-1.00000363545405E-09</v>
       </c>
       <c r="U63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL63">
+        <v>13.09552790185</v>
+      </c>
+      <c r="AM63">
+        <v>0.05460666776153721</v>
+      </c>
+      <c r="AN63">
+        <v>0.04311052718016097</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>2016</v>
@@ -5506,15 +6082,24 @@
         <v>0.1267072670000005</v>
       </c>
       <c r="U64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL64">
+        <v>13.12138258071</v>
+      </c>
+      <c r="AM64">
+        <v>0.07057113187954307</v>
+      </c>
+      <c r="AN64">
+        <v>0.05102803738317756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>2016</v>
@@ -5574,15 +6159,24 @@
         <v>0.4005607029999965</v>
       </c>
       <c r="U65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL65">
+        <v>12.95305446425</v>
+      </c>
+      <c r="AM65">
+        <v>0.04430259146341463</v>
+      </c>
+      <c r="AN65">
+        <v>0.0293921493902439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>2016</v>
@@ -5642,15 +6236,24 @@
         <v>0.245877053000001</v>
       </c>
       <c r="U66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL66">
+        <v>13.10358334247</v>
+      </c>
+      <c r="AM66">
+        <v>0.03156812842599845</v>
+      </c>
+      <c r="AN66">
+        <v>0.04316758026624904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>2016</v>
@@ -5710,15 +6313,24 @@
         <v>0.03984072899999092</v>
       </c>
       <c r="U67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37">
+        <v>139</v>
+      </c>
+      <c r="AL67">
+        <v>13.09372069625</v>
+      </c>
+      <c r="AM67">
+        <v>0.07919720186542305</v>
+      </c>
+      <c r="AN67">
+        <v>0.05804463690872751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>2016</v>
@@ -5778,15 +6390,24 @@
         <v>0.2637371299999955</v>
       </c>
       <c r="U68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK68" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL68">
+        <v>12.96304183486</v>
+      </c>
+      <c r="AM68">
+        <v>0.01942459226681327</v>
+      </c>
+      <c r="AN68">
+        <v>0.03261865493861096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>2016</v>
@@ -5846,7 +6467,7 @@
         <v>0.202045186999996</v>
       </c>
       <c r="U69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X69">
         <v>1.27</v>
@@ -5867,12 +6488,21 @@
         <v>11.28</v>
       </c>
       <c r="AK69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL69">
+        <v>13.21170509351</v>
+      </c>
+      <c r="AM69">
+        <v>0.03531639117454309</v>
+      </c>
+      <c r="AN69">
+        <v>0.03833830918226173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>2016</v>
@@ -5932,15 +6562,24 @@
         <v>0.2048442739999956</v>
       </c>
       <c r="U70" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AK70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL70">
+        <v>12.9063881607</v>
+      </c>
+      <c r="AM70">
+        <v>0.034364392234639</v>
+      </c>
+      <c r="AN70">
+        <v>0.0489721194553568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>2016</v>
@@ -6000,15 +6639,24 @@
         <v>0.03050239399999555</v>
       </c>
       <c r="U71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AK71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL71">
+        <v>12.94540663284</v>
+      </c>
+      <c r="AM71">
+        <v>0.04497095489850533</v>
+      </c>
+      <c r="AN71">
+        <v>0.04627635271849096</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>2016</v>
@@ -6068,7 +6716,7 @@
         <v>0.2463670829999955</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="X72">
         <v>0.86</v>
@@ -6089,12 +6737,21 @@
         <v>15.04</v>
       </c>
       <c r="AK72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL72">
+        <v>13.19158525139</v>
+      </c>
+      <c r="AM72">
+        <v>0.03239780805687204</v>
+      </c>
+      <c r="AN72">
+        <v>0.04931872037914691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>2016</v>
@@ -6154,7 +6811,7 @@
         <v>0.2764995779999992</v>
       </c>
       <c r="U73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="X73">
         <v>0.9</v>
@@ -6193,12 +6850,21 @@
         <v>11.89</v>
       </c>
       <c r="AK73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:37">
+        <v>135</v>
+      </c>
+      <c r="AL73">
+        <v>12.75048960932</v>
+      </c>
+      <c r="AM73">
+        <v>0.03302569670647847</v>
+      </c>
+      <c r="AN73">
+        <v>0.03474484256243213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>2016</v>
@@ -6258,15 +6924,24 @@
         <v>0.0760236030000101</v>
       </c>
       <c r="U74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AK74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL74">
+        <v>13.19341911271</v>
+      </c>
+      <c r="AM74">
+        <v>0.04788034339322065</v>
+      </c>
+      <c r="AN74">
+        <v>0.07049296397911321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>2016</v>
@@ -6326,7 +7001,7 @@
         <v>0.1402825419999942</v>
       </c>
       <c r="U75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="X75">
         <v>2.17</v>
@@ -6347,12 +7022,21 @@
         <v>13.18</v>
       </c>
       <c r="AK75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL75">
+        <v>13.24748552572</v>
+      </c>
+      <c r="AM75">
+        <v>0.03798624876114964</v>
+      </c>
+      <c r="AN75">
+        <v>0.06414147670961344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>2016</v>
@@ -6412,15 +7096,24 @@
         <v>0.04901443699999675</v>
       </c>
       <c r="U76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AK76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:37">
+        <v>138</v>
+      </c>
+      <c r="AL76">
+        <v>13.02063650211</v>
+      </c>
+      <c r="AM76">
+        <v>0.07213067360508814</v>
+      </c>
+      <c r="AN76">
+        <v>0.04416016189650186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>2016</v>
@@ -6480,15 +7173,24 @@
         <v>0.3393301059999914</v>
       </c>
       <c r="U77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK77" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:37">
+        <v>136</v>
+      </c>
+      <c r="AL77">
+        <v>12.69102391486</v>
+      </c>
+      <c r="AM77">
+        <v>0.04124999999999999</v>
+      </c>
+      <c r="AN77">
+        <v>0.04249999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>2016</v>
@@ -6548,15 +7250,24 @@
         <v>0.1601896270000083</v>
       </c>
       <c r="U78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AK78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:37">
+        <v>140</v>
+      </c>
+      <c r="AL78">
+        <v>13.43819188641</v>
+      </c>
+      <c r="AM78">
+        <v>0.04375</v>
+      </c>
+      <c r="AN78">
+        <v>0.06187499999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>2016</v>
@@ -6616,10 +7327,19 @@
         <v>0.2244654539999971</v>
       </c>
       <c r="U79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AK79" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL79">
+        <v>13.06680827194</v>
+      </c>
+      <c r="AM79">
+        <v>0.03771534155752404</v>
+      </c>
+      <c r="AN79">
+        <v>0.04646486603988913</v>
       </c>
     </row>
   </sheetData>
